--- a/medicine/Sexualité et sexologie/All_About_Anna/All_About_Anna.xlsx
+++ b/medicine/Sexualité et sexologie/All_About_Anna/All_About_Anna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">All About Anna est un film danois réalisé par Jessica Nilsson, sorti en 2005. Gry Bay, Mark Stevens (da) et l'actrice britannique Eileen Daly interprètent les rôles principaux. Le film est explicite dans son exploration des relations sexuelles, mais il évite la classification pornographique grâce à l’absence de la présentation d’images en gros plan du contact d’organes génitaux. Ce film est déconseillé aux moins de 16 ans[Où ?].
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anna (Gry Bay), une célibataire, cherche à maintenir une vie sexuelle active et évite les liaisons romantiques. Lorsqu’un ancien ami (Mark Stevens (da)) apparaît, elle se demande comment elle va réussir à préserver son indépendance émotive, et si cette indépendance est réellement ce qu'elle désire. En même temps, on lui offre un contrat de costumière dans un théâtre français, où les acteurs Pierre (Morten Schelbech) et Sophie (Ovidie) tentent de la séduire.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Jessica Nilsson
 Scénario : Anya Aims et Loretta Fabiana
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gry Bay : Anna
 Adrian Bouchet (da) (sous le nom Mark Stevens) : Johan
@@ -620,7 +638,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Une coproduction entre Innocent Pictures et Zentropa, compagnie de Lars von Trier, All About Anna est le troisième film érotique de Zentropa pour femmes après Constance (1998) et Pink Prison (1999). Ces trois films sont produits selon les critères du Puzzy Power Manifesto établit par Zentropa en 1997.
 L’acteur, réalisateur, producteur, scénariste, écrivain et musicien canadien Thomas Lundy, connu pour ses courts métrages cultes diffusés sur Canal+ Nu non (Nude Not) et L’homme qui n’avait jamais d’amies (The Man Who Never Had a Girlfriend), joue le rôle d’Albert.</t>
@@ -651,7 +671,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>All About Anna est présenté au festival international de Zurich et à la Io, Isabella International Film Week.
 En 2006, All About Anna est nommé pour deux prix EroticLine : meilleure débutante internationale (Gry Bay) et meilleur acteur international (Mark Stevens).
